--- a/ballots/2013-09 DSTU/FHIR_DSTU_2013SEPT_MASTER.xlsx
+++ b/ballots/2013-09 DSTU/FHIR_DSTU_2013SEPT_MASTER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18720" windowHeight="8550"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18720" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5445" uniqueCount="2033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5507" uniqueCount="2056">
   <si>
     <t>All</t>
   </si>
@@ -12239,10 +12239,6 @@
 Search defaults to return the full resource, and this cannot be a privacy violation, since the resource is the smallest unit of transction and access control. There is a way to ask for just a summary (but see #74)</t>
   </si>
   <si>
-    <t>HL7 typically produces multiple solutions for a given problem space due to demand from the implementer community.  Few implementers wish to implement diverse technology stacks in order to solve what are (to them) related problems.  At the same time, HL7 can ill-afford to stick with the same technology stack for more than 25 years.  The differences between the implementations for the same problem space in different stacks are driven by a few things: Different constraints of the technology stack, evolved understanding of the domain and lack of coordination.  Only the latter can really be addressed, though the limitation there can sometimes be volunteer bandwidth.
-With FHIR, it's certainly possible for WGs to create profiles of FHIR that provide strict alignment of FHIR capabilities with previous specifications (v2, v3 and/or CDA).  It's also possible for them to create transforms to convert between these various forms.  Whether the WGs and/or the market sees value in doing this is up to them</t>
-  </si>
-  <si>
     <t>committee discussion</t>
   </si>
   <si>
@@ -12307,10 +12303,6 @@
 Suggest that the right thing to say is that these things must be observed unless there is specific trading partner agreement to the contrary</t>
   </si>
   <si>
-    <t>this and other issues on managing resource identity in distributed environments needs substantial impovement.
-Proposal: add a page specifically for this</t>
-  </si>
-  <si>
     <t>discussion at connectathon</t>
   </si>
   <si>
@@ -12325,6 +12317,82 @@
   </si>
   <si>
     <t>peruasive with mod</t>
+  </si>
+  <si>
+    <t>add a profile if we have time</t>
+  </si>
+  <si>
+    <t>add an example</t>
+  </si>
+  <si>
+    <t>don't know what this meams - via lloyd?</t>
+  </si>
+  <si>
+    <t>vocab research</t>
+  </si>
+  <si>
+    <t>add one</t>
+  </si>
+  <si>
+    <t>well, ok</t>
+  </si>
+  <si>
+    <t>happy with this,except for the last sentence</t>
+  </si>
+  <si>
+    <t>why? When it has duration anyway. Complicates things needlessly. Just say datetime is the start</t>
+  </si>
+  <si>
+    <t>author is operator. Agree to drop requestor</t>
+  </si>
+  <si>
+    <t>well, it should be removed then</t>
+  </si>
+  <si>
+    <t>see #480</t>
+  </si>
+  <si>
+    <t>withdrawn</t>
+  </si>
+  <si>
+    <t>add this</t>
+  </si>
+  <si>
+    <t>move these to their own place</t>
+  </si>
+  <si>
+    <t>fix diagrams generally</t>
+  </si>
+  <si>
+    <t>add constraints</t>
+  </si>
+  <si>
+    <t>I don't think so because theres things that are not in the profile, and it would be really hard to infer a version if all you had was other profiles to infer from</t>
+  </si>
+  <si>
+    <t>I think so. Its possible that you have just name, but then it would get sometimes get really long, and/or you wouldn't get as much information as ou need</t>
+  </si>
+  <si>
+    <t>did you look at the extension example?</t>
+  </si>
+  <si>
+    <t>chnge to required</t>
+  </si>
+  <si>
+    <t>this and other issues on managing resource identity in distributed environments needs substantial impovement.
+Proposal: add a page specifically for this (and cover #96 too)</t>
+  </si>
+  <si>
+    <t>see #94</t>
+  </si>
+  <si>
+    <t>add an explanatory note to the page</t>
+  </si>
+  <si>
+    <t>start with the stuff in the dstu note</t>
+  </si>
+  <si>
+    <t>see #103</t>
   </si>
 </sst>
 </file>
@@ -13647,10 +13715,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A30" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A183" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomLeft" activeCell="L189" sqref="L189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15064,10 +15132,10 @@
         <v>1715</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="N37" s="1"/>
     </row>
@@ -16755,7 +16823,7 @@
         <v>1723</v>
       </c>
       <c r="L82" s="42" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>1728</v>
@@ -16863,7 +16931,7 @@
         <v>1723</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -17209,7 +17277,7 @@
         <v>1802</v>
       </c>
       <c r="L95" s="42" t="s">
-        <v>2027</v>
+        <v>2051</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>1791</v>
@@ -17273,8 +17341,12 @@
       <c r="K97" s="25" t="s">
         <v>1725</v>
       </c>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="L97" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>1947</v>
+      </c>
     </row>
     <row r="98" spans="1:14" s="19" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
@@ -17492,8 +17564,12 @@
       <c r="K104" s="25" t="s">
         <v>1725</v>
       </c>
-      <c r="L104" s="1"/>
-      <c r="M104" s="2"/>
+      <c r="L104" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="105" spans="1:14" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
@@ -17520,10 +17596,14 @@
         <v>0</v>
       </c>
       <c r="K105" s="27" t="s">
-        <v>1797</v>
-      </c>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
+        <v>1715</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="106" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
@@ -17552,8 +17632,12 @@
       <c r="K106" s="27" t="s">
         <v>1797</v>
       </c>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
+      <c r="L106" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>1720</v>
+      </c>
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -17583,8 +17667,12 @@
       <c r="K107" s="27" t="s">
         <v>1797</v>
       </c>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
+      <c r="L107" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="108" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
@@ -17721,7 +17809,7 @@
         <v>1733</v>
       </c>
       <c r="L111" s="42" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>1791</v>
@@ -17757,7 +17845,7 @@
         <v>1733</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>1728</v>
@@ -17797,7 +17885,7 @@
         <v>1733</v>
       </c>
       <c r="L113" s="42" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>1791</v>
@@ -17836,7 +17924,7 @@
         <v>1733</v>
       </c>
       <c r="L114" s="42" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>1791</v>
@@ -20346,8 +20434,12 @@
       <c r="K187" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
+      <c r="L187" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>2042</v>
+      </c>
       <c r="N187" s="2"/>
     </row>
     <row r="188" spans="1:14" s="19" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
@@ -20381,11 +20473,9 @@
         <v>1785</v>
       </c>
       <c r="L188" s="42" t="s">
-        <v>2005</v>
-      </c>
-      <c r="M188" s="2" t="s">
-        <v>1728</v>
-      </c>
+        <v>2026</v>
+      </c>
+      <c r="M188" s="2"/>
       <c r="N188" s="2"/>
     </row>
     <row r="189" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -20523,7 +20613,7 @@
         <v>1802</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -20936,8 +21026,12 @@
       <c r="K204" s="26" t="s">
         <v>1816</v>
       </c>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
+      <c r="L204" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>1720</v>
+      </c>
       <c r="N204" s="1"/>
     </row>
     <row r="205" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -20968,8 +21062,12 @@
       <c r="K205" s="26" t="s">
         <v>1816</v>
       </c>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
+      <c r="L205" s="42" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M205" s="42" t="s">
+        <v>1720</v>
+      </c>
       <c r="N205" s="1"/>
     </row>
     <row r="206" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -21066,7 +21164,9 @@
       <c r="K208" s="26" t="s">
         <v>1816</v>
       </c>
-      <c r="L208" s="1"/>
+      <c r="L208" s="1" t="s">
+        <v>1965</v>
+      </c>
       <c r="M208" s="2"/>
       <c r="N208" s="1"/>
     </row>
@@ -21265,8 +21365,12 @@
       <c r="K214" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="L214" s="1"/>
-      <c r="M214" s="2"/>
+      <c r="L214" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M214" s="43" t="s">
+        <v>2042</v>
+      </c>
       <c r="N214" s="1"/>
     </row>
     <row r="215" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -21629,7 +21733,9 @@
       <c r="K225" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="L225" s="1"/>
+      <c r="L225" s="1" t="s">
+        <v>2033</v>
+      </c>
       <c r="M225" s="1"/>
       <c r="N225" s="3"/>
     </row>
@@ -21661,7 +21767,9 @@
       <c r="K226" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="L226" s="1"/>
+      <c r="L226" s="1" t="s">
+        <v>2034</v>
+      </c>
       <c r="M226" s="1"/>
       <c r="N226" s="2"/>
     </row>
@@ -22108,6 +22216,12 @@
       <c r="K240" s="19" t="s">
         <v>1725</v>
       </c>
+      <c r="L240" s="19" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M240" s="43" t="s">
+        <v>1720</v>
+      </c>
       <c r="N240" s="3"/>
     </row>
     <row r="241" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -22527,7 +22641,7 @@
         <v>1785</v>
       </c>
       <c r="L253" s="19" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="N253" s="2"/>
     </row>
@@ -22920,6 +23034,12 @@
       <c r="K265" s="19" t="s">
         <v>1797</v>
       </c>
+      <c r="L265" s="19" t="s">
+        <v>2035</v>
+      </c>
+      <c r="M265" s="19" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="266" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="19">
@@ -23212,6 +23332,12 @@
       <c r="K274" s="19" t="s">
         <v>1725</v>
       </c>
+      <c r="L274" s="19" t="s">
+        <v>2055</v>
+      </c>
+      <c r="M274" s="19" t="s">
+        <v>1947</v>
+      </c>
       <c r="N274" s="3"/>
     </row>
     <row r="275" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -23515,6 +23641,12 @@
       <c r="K284" s="26" t="s">
         <v>1816</v>
       </c>
+      <c r="L284" s="19" t="s">
+        <v>2044</v>
+      </c>
+      <c r="M284" s="42" t="s">
+        <v>1720</v>
+      </c>
       <c r="N284" s="1"/>
     </row>
     <row r="285" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -23841,6 +23973,9 @@
       <c r="K294" s="19" t="s">
         <v>1797</v>
       </c>
+      <c r="L294" s="19" t="s">
+        <v>2034</v>
+      </c>
     </row>
     <row r="295" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="19">
@@ -23903,6 +24038,12 @@
       <c r="J296" s="27"/>
       <c r="K296" s="19" t="s">
         <v>1801</v>
+      </c>
+      <c r="L296" s="19" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M296" s="43" t="s">
+        <v>2042</v>
       </c>
       <c r="N296" s="2"/>
     </row>
@@ -23994,6 +24135,12 @@
       <c r="K299" s="19" t="s">
         <v>1801</v>
       </c>
+      <c r="L299" s="19" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M299" s="43" t="s">
+        <v>2042</v>
+      </c>
       <c r="N299" s="1"/>
     </row>
     <row r="300" spans="1:14" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -26072,8 +26219,12 @@
       <c r="K364" s="33" t="s">
         <v>1797</v>
       </c>
-      <c r="L364" s="1"/>
-      <c r="M364" s="1"/>
+      <c r="L364" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="M364" s="1" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="365" spans="1:14" ht="204" x14ac:dyDescent="0.25">
       <c r="A365" s="19">
@@ -26105,8 +26256,12 @@
       <c r="K365" s="33" t="s">
         <v>1797</v>
       </c>
-      <c r="L365" s="1"/>
-      <c r="M365" s="1"/>
+      <c r="L365" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="M365" s="1" t="s">
+        <v>1791</v>
+      </c>
     </row>
     <row r="366" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A366" s="19">
@@ -27965,7 +28120,7 @@
         <v>1802</v>
       </c>
       <c r="L420" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="M420" s="1"/>
     </row>
@@ -28239,8 +28394,12 @@
       <c r="K428" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="L428" s="1"/>
-      <c r="M428" s="1"/>
+      <c r="L428" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="M428" s="1" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="429" spans="1:14" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A429" s="19">
@@ -28729,7 +28888,7 @@
         <v>1785</v>
       </c>
       <c r="L442" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M442" s="1" t="s">
         <v>1791</v>
@@ -28766,7 +28925,7 @@
         <v>1785</v>
       </c>
       <c r="L443" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M443" s="1"/>
       <c r="N443" s="2"/>
@@ -28802,7 +28961,7 @@
         <v>1785</v>
       </c>
       <c r="L444" s="1" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M444" s="1"/>
       <c r="N444" s="2"/>
@@ -28838,7 +28997,7 @@
         <v>1785</v>
       </c>
       <c r="L445" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M445" s="1" t="s">
         <v>1720</v>
@@ -28875,7 +29034,9 @@
       <c r="K446" s="26" t="s">
         <v>1816</v>
       </c>
-      <c r="L446" s="1"/>
+      <c r="L446" s="1" t="s">
+        <v>2026</v>
+      </c>
       <c r="M446" s="1"/>
       <c r="N446" s="2"/>
     </row>
@@ -28910,7 +29071,7 @@
         <v>1785</v>
       </c>
       <c r="L447" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="M447" s="1" t="s">
         <v>1728</v>
@@ -28947,7 +29108,7 @@
         <v>1785</v>
       </c>
       <c r="L448" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="M448" s="1" t="s">
         <v>1791</v>
@@ -28985,7 +29146,7 @@
         <v>1785</v>
       </c>
       <c r="L449" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M449" s="1"/>
     </row>
@@ -29058,7 +29219,7 @@
         <v>1785</v>
       </c>
       <c r="L451" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="M451" s="1" t="s">
         <v>1720</v>
@@ -29769,8 +29930,12 @@
       <c r="K471" s="42" t="s">
         <v>1797</v>
       </c>
-      <c r="L471" s="1"/>
-      <c r="M471" s="1"/>
+      <c r="L471" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>1720</v>
+      </c>
       <c r="N471" s="1"/>
     </row>
     <row r="472" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
@@ -29837,8 +30002,12 @@
       <c r="K473" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="L473" s="1"/>
-      <c r="M473" s="1"/>
+      <c r="L473" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="M473" s="1" t="s">
+        <v>1720</v>
+      </c>
       <c r="N473" s="1"/>
     </row>
     <row r="474" spans="1:14" ht="293.25" x14ac:dyDescent="0.25">
@@ -29909,8 +30078,12 @@
       <c r="K475" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="L475" s="1"/>
-      <c r="M475" s="1"/>
+      <c r="L475" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="M475" s="42" t="s">
+        <v>1720</v>
+      </c>
       <c r="N475" s="2"/>
     </row>
     <row r="476" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -29943,8 +30116,12 @@
       <c r="K476" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="L476" s="1"/>
-      <c r="M476" s="1"/>
+      <c r="L476" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>1720</v>
+      </c>
       <c r="N476" s="2"/>
     </row>
     <row r="477" spans="1:14" ht="408" x14ac:dyDescent="0.25">
@@ -30121,8 +30298,12 @@
       <c r="K481" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="L481" s="1"/>
-      <c r="M481" s="1"/>
+      <c r="L481" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>1720</v>
+      </c>
       <c r="N481" s="1"/>
     </row>
     <row r="482" spans="1:14" ht="191.25" x14ac:dyDescent="0.25">
@@ -32307,7 +32488,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="550" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A550" s="19">
         <v>549</v>
       </c>
@@ -32335,6 +32516,12 @@
       <c r="K550" s="3" t="s">
         <v>1797</v>
       </c>
+      <c r="L550" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="M550" s="3" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="551" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="19">
@@ -32364,6 +32551,12 @@
       <c r="K551" s="3" t="s">
         <v>1797</v>
       </c>
+      <c r="L551" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="M551" s="3" t="s">
+        <v>1791</v>
+      </c>
     </row>
     <row r="552" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A552" s="19">
@@ -32564,7 +32757,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="558" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A558" s="19">
         <v>557</v>
       </c>
@@ -32592,6 +32785,12 @@
       <c r="K558" s="3" t="s">
         <v>1816</v>
       </c>
+      <c r="L558" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="M558" s="3" t="s">
+        <v>1728</v>
+      </c>
     </row>
     <row r="559" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A559" s="19">
@@ -32628,7 +32827,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="560" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A560" s="19">
         <v>559</v>
       </c>
@@ -32656,6 +32855,12 @@
       <c r="K560" s="3" t="s">
         <v>1816</v>
       </c>
+      <c r="L560" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="M560" s="3" t="s">
+        <v>1728</v>
+      </c>
     </row>
     <row r="561" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A561" s="19">
@@ -38125,6 +38330,12 @@
       <c r="K713" s="3" t="s">
         <v>1816</v>
       </c>
+      <c r="L713" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="M713" s="3" t="s">
+        <v>1732</v>
+      </c>
     </row>
     <row r="714" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A714" s="19">
@@ -38155,6 +38366,12 @@
       <c r="J714" s="27"/>
       <c r="K714" s="3" t="s">
         <v>1816</v>
+      </c>
+      <c r="L714" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="M714" s="42" t="s">
+        <v>1720</v>
       </c>
       <c r="N714" s="19"/>
     </row>
@@ -38621,7 +38838,7 @@
         <v>1785</v>
       </c>
       <c r="L728" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="M728" s="1"/>
       <c r="N728" s="1"/>
@@ -38655,7 +38872,7 @@
         <v>1785</v>
       </c>
       <c r="L729" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="M729" s="1"/>
       <c r="N729" s="2"/>
@@ -38689,7 +38906,7 @@
         <v>1785</v>
       </c>
       <c r="L730" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="M730" s="1" t="s">
         <v>1791</v>
@@ -38761,7 +38978,7 @@
         <v>1785</v>
       </c>
       <c r="L732" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="M732" s="1"/>
       <c r="N732" s="1"/>
@@ -38795,7 +39012,7 @@
         <v>1785</v>
       </c>
       <c r="L733" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="M733" s="1" t="s">
         <v>1791</v>
@@ -38831,7 +39048,7 @@
         <v>1785</v>
       </c>
       <c r="L734" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="M734" s="1"/>
       <c r="N734" s="19"/>
@@ -38869,7 +39086,7 @@
         <v>1785</v>
       </c>
       <c r="L735" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="M735" s="1" t="s">
         <v>1728</v>
@@ -38909,7 +39126,7 @@
         <v>1785</v>
       </c>
       <c r="L736" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="M736" s="1" t="s">
         <v>1728</v>
@@ -40121,7 +40338,7 @@
         <v>1785</v>
       </c>
       <c r="L777" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="N777" s="1"/>
     </row>
@@ -40842,7 +41059,7 @@
         <v>1785</v>
       </c>
       <c r="L815" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
   </sheetData>
